--- a/PREPARE-TIMES-NZ/output/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
+++ b/PREPARE-TIMES-NZ/output/SuppXLS/Trades/ScenTrade__Trade_Links.xlsx
@@ -499,7 +499,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PET</t>
+          <t>FOL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,7 +542,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DSL</t>
+          <t>JET</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FOL</t>
+          <t>OTH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JET</t>
+          <t>COA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -660,6 +660,11 @@
           <t>SI</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -671,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OTH</t>
+          <t>PET</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -714,7 +719,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>COA</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -762,7 +767,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>DID</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -794,11 +799,6 @@
           <t>SI</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DID</t>
+          <t>DIJ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -853,7 +853,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>DIJ</t>
+          <t>LPG</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>LPG</t>
+          <t>DSL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
